--- a/DataOfExperiment/experiment.xlsx
+++ b/DataOfExperiment/experiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -31,6 +31,36 @@
     <t>Unnamed: 0.1.1.1.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
     <t>系统名</t>
   </si>
   <si>
@@ -265,6 +295,36 @@
     <t>[38, 12, 8, 40, 36, 41, 4, 37, 35, 9, 16, 30, 3, 18, 20, 24, 27, 31, 14, 44, 21, 34, 32, 19, 15, 6, 7, 11, 33, 28, 17, 25, 43, 2, 26, 23, 10, 13, 22, 29, 42, 0, 1, 39, 5]</t>
   </si>
   <si>
+    <t>[44, 63, 0, 27, 13, 8, 32, 41, 20, 16, 19, 3, 57, 54, 28, 62, 11, 48, 1, 33, 52, 35, 56, 46, 64, 18, 5, 34, 60, 2, 59, 51, 43, 21, 7, 24, 26, 14, 39, 36, 47, 49, 37, 12, 15, 38, 29, 25, 4, 9, 61, 23, 45, 6, 17, 55, 10, 58, 50, 22, 53, 42, 40, 30, 31]</t>
+  </si>
+  <si>
+    <t>[0, 32, 3, 24, 5, 33, 15, 28, 10, 13, 29, 17, 20, 23, 14, 8, 30, 36, 7, 11, 38, 26, 1, 2, 22, 21, 16, 4, 25, 9, 35, 34, 12, 19, 27, 37, 6, 31, 18]</t>
+  </si>
+  <si>
+    <t>[35, 20, 34, 6, 1, 23, 9, 16, 11, 13, 37, 19, 39, 22, 44, 43, 28, 30, 17, 24, 0, 31, 25, 2, 8, 38, 32, 29, 14, 41, 42, 40, 12, 15, 10, 4, 36, 3, 27, 21, 33, 26, 18, 7, 5]</t>
+  </si>
+  <si>
+    <t>[21, 23, 15, 22, 4, 0, 5, 16, 12, 6, 20, 19, 8, 9, 10, 14, 7, 24, 13, 1, 2, 11, 3, 17, 18]</t>
+  </si>
+  <si>
+    <t>[57, 15, 25, 52, 58, 0, 7, 10, 22, 43, 5, 21, 39, 19, 23, 14, 1, 6, 8, 28, 45, 18, 26, 59, 55, 48, 42, 33, 36, 60, 3, 56, 31, 30, 9, 54, 47, 37, 11, 4, 12, 35, 34, 27, 40, 41, 13, 53, 2, 51, 49, 24, 38, 32, 44, 29, 16, 17, 50, 46, 20]</t>
+  </si>
+  <si>
+    <t>[4, 13, 20, 5, 15, 14, 0, 8, 1, 9, 18, 16, 10, 17, 19, 12, 3, 6, 7, 11, 2]</t>
+  </si>
+  <si>
+    <t>[9, 6, 0, 2, 1, 10, 8, 3, 11, 7, 5, 4]</t>
+  </si>
+  <si>
+    <t>[19, 35, 58, 46, 49, 10, 32, 62, 44, 20, 13, 18, 3, 4, 56, 55, 2, 52, 1, 51, 27, 45, 64, 43, 38, 26, 54, 34, 5, 28, 16, 63, 60, 36, 15, 41, 17, 9, 24, 42, 37, 31, 57, 8, 29, 7, 48, 0, 61, 47, 53, 40, 30, 23, 21, 22, 11, 59, 39, 14, 12, 25, 6, 33, 50]</t>
+  </si>
+  <si>
+    <t>[13, 2, 37, 24, 0, 5, 38, 4, 34, 32, 12, 29, 35, 10, 25, 36, 27, 6, 19, 21, 11, 23, 18, 9, 22, 31, 14, 16, 26, 30, 8, 15, 17, 33, 1, 28, 20, 7, 3]</t>
+  </si>
+  <si>
+    <t>[42, 43, 16, 28, 30, 15, 14, 0, 1, 3, 24, 9, 25, 35, 19, 36, 38, 11, 32, 13, 33, 21, 20, 23, 34, 22, 26, 37, 8, 2, 10, 17, 12, 41, 27, 40, 44, 6, 7, 29, 31, 5, 39, 4, 18]</t>
+  </si>
+  <si>
     <t>[1, 3, 5, 9, 11, 15, 17, 19, 20, 21, 23, 24]</t>
   </si>
   <si>
@@ -404,6 +464,36 @@
   </si>
   <si>
     <t>[1, 3, 4, 6, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 42, 43, 44]</t>
+  </si>
+  <si>
+    <t>[6, 9, 10, 12, 17, 21, 22, 23, 25, 26, 28, 29, 30, 31, 33, 34, 35, 36, 37, 38, 39, 40, 42, 43, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 64]</t>
+  </si>
+  <si>
+    <t>[2, 5, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 26, 27, 31, 34, 35, 36]</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 36, 37, 38, 39, 40, 42, 43, 44]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 9, 11, 14, 15, 16, 17, 18, 19, 20, 22, 24]</t>
+  </si>
+  <si>
+    <t>[1, 3, 6, 7, 9, 13, 14, 16, 17, 18, 20, 23, 24, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 38, 40, 41, 42, 43, 44, 45, 46, 47, 48, 50, 51, 54, 55, 60]</t>
+  </si>
+  <si>
+    <t>[2, 7, 8, 9, 10, 11, 12, 16, 19, 20]</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 7, 8, 10]</t>
+  </si>
+  <si>
+    <t>[6, 7, 11, 12, 14, 16, 17, 21, 22, 24, 25, 26, 29, 30, 33, 39, 40, 47, 48, 50, 53, 57, 59, 60, 63]</t>
+  </si>
+  <si>
+    <t>[3, 7, 8, 9, 10, 14, 16, 17, 18, 19, 20, 23, 26, 27, 28, 30, 31, 33, 35, 36]</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 5, 6, 7, 8, 10, 12, 17, 18, 19, 20, 21, 22, 23, 24, 26, 27, 29, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 44]</t>
   </si>
 </sst>
 </file>
@@ -761,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +906,38 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -836,41 +956,71 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2">
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2">
         <v>714.6649892330159</v>
       </c>
-      <c r="K2">
+      <c r="U2">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="V2">
         <v>8</v>
       </c>
-      <c r="M2">
+      <c r="W2">
         <v>3500</v>
       </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2">
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2">
         <v>4.346958973568928</v>
       </c>
-      <c r="P2">
+      <c r="Z2">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="AA2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -889,41 +1039,71 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3">
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3">
         <v>468.99211359024</v>
       </c>
-      <c r="K3">
+      <c r="U3">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="M3">
+      <c r="W3">
         <v>3500</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3">
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3">
         <v>4.9084217666214</v>
       </c>
-      <c r="P3">
+      <c r="Z3">
         <v>17</v>
       </c>
-      <c r="Q3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="AA3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -942,41 +1122,71 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4">
         <v>487.2280037403107</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>3500</v>
       </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4">
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4">
         <v>4.369634116902839</v>
       </c>
-      <c r="P4">
+      <c r="Z4">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="AA4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -995,41 +1205,71 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>463.860910654068</v>
+      </c>
+      <c r="U5">
+        <v>23</v>
+      </c>
+      <c r="V5">
+        <v>15</v>
+      </c>
+      <c r="W5">
+        <v>3500</v>
+      </c>
+      <c r="X5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5">
+        <v>4.835391030106364</v>
+      </c>
+      <c r="Z5">
         <v>16</v>
       </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>463.860910654068</v>
-      </c>
-      <c r="K5">
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>3500</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5">
-        <v>4.835391030106364</v>
-      </c>
-      <c r="P5">
-        <v>16</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="AA5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1048,41 +1288,71 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6">
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6">
         <v>190.7541327476501</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>17</v>
       </c>
-      <c r="L6">
+      <c r="V6">
         <v>14</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>800</v>
       </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6">
+      <c r="X6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6">
         <v>4.713071918808447</v>
       </c>
-      <c r="P6">
+      <c r="Z6">
         <v>17</v>
       </c>
-      <c r="Q6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="AA6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1101,41 +1371,71 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7">
         <v>773.3970744609833</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>12</v>
       </c>
-      <c r="L7">
+      <c r="V7">
         <v>12</v>
       </c>
-      <c r="M7">
+      <c r="W7">
         <v>300</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7">
+      <c r="X7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7">
         <v>5.556810228866578</v>
       </c>
-      <c r="P7">
+      <c r="Z7">
         <v>14</v>
       </c>
-      <c r="Q7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1154,41 +1454,71 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
+      <c r="G8">
+        <v>6</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8">
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8">
         <v>1986.17062497139</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>17</v>
       </c>
-      <c r="L8">
+      <c r="V8">
         <v>14</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>30000</v>
       </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8">
+      <c r="X8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8">
         <v>3.308441908222516</v>
       </c>
-      <c r="P8">
+      <c r="Z8">
         <v>17</v>
       </c>
-      <c r="Q8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="AA8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1207,41 +1537,71 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
+      <c r="G9">
+        <v>7</v>
       </c>
       <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9">
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9">
         <v>620.9708018302917</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>3500</v>
       </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9">
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9">
         <v>3.09084944762535</v>
       </c>
-      <c r="P9">
+      <c r="Z9">
         <v>13</v>
       </c>
-      <c r="Q9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="AA9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1260,41 +1620,71 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
+      <c r="G10">
+        <v>8</v>
       </c>
       <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10">
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10">
         <v>346.7397270202637</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>3500</v>
       </c>
-      <c r="N10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10">
+      <c r="X10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10">
         <v>2.87611728609777</v>
       </c>
-      <c r="P10">
+      <c r="Z10">
         <v>9</v>
       </c>
-      <c r="Q10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1313,41 +1703,71 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
+      <c r="G11">
+        <v>9</v>
       </c>
       <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11">
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11">
         <v>339.4225571155548</v>
       </c>
-      <c r="K11">
+      <c r="U11">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="W11">
         <v>3500</v>
       </c>
-      <c r="N11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11">
+      <c r="X11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11">
         <v>3.276523464162879</v>
       </c>
-      <c r="P11">
+      <c r="Z11">
         <v>16</v>
       </c>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="AA11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1366,41 +1786,71 @@
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
+      <c r="G12">
+        <v>10</v>
       </c>
       <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12">
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12">
         <v>359.7902572154999</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>3500</v>
       </c>
-      <c r="N12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12">
+      <c r="X12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12">
         <v>2.742584704931311</v>
       </c>
-      <c r="P12">
+      <c r="Z12">
         <v>15</v>
       </c>
-      <c r="Q12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="AA12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1419,41 +1869,71 @@
       <c r="F13">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
+      <c r="G13">
+        <v>11</v>
       </c>
       <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13">
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13">
         <v>152.1677675247192</v>
       </c>
-      <c r="K13">
+      <c r="U13">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="V13">
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="W13">
         <v>800</v>
       </c>
-      <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13">
+      <c r="X13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13">
         <v>3.620709393028062</v>
       </c>
-      <c r="P13">
+      <c r="Z13">
         <v>13</v>
       </c>
-      <c r="Q13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="AA13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1472,41 +1952,71 @@
       <c r="F14">
         <v>12</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
+      <c r="G14">
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>2.036598682403564</v>
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M14">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
-        <v>44</v>
+      <c r="N14">
+        <v>12</v>
       </c>
       <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14">
+        <v>2.036598682403564</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14">
         <v>5.041083581124836</v>
       </c>
-      <c r="P14">
+      <c r="Z14">
         <v>16</v>
       </c>
-      <c r="Q14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="AA14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1525,41 +2035,71 @@
       <c r="F15">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
+      <c r="G15">
+        <v>13</v>
       </c>
       <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15">
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15">
         <v>0.2487380504608154</v>
       </c>
-      <c r="K15">
+      <c r="U15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="V15">
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="W15">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15">
+      <c r="X15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15">
         <v>6.48503859454389</v>
       </c>
-      <c r="P15">
+      <c r="Z15">
         <v>9</v>
       </c>
-      <c r="Q15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="AA15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1578,41 +2118,71 @@
       <c r="F16">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
+      <c r="G16">
+        <v>14</v>
       </c>
       <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16">
         <v>21</v>
       </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16">
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16">
         <v>0.2563154697418213</v>
       </c>
-      <c r="K16">
+      <c r="U16">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="V16">
         <v>1</v>
       </c>
-      <c r="M16">
+      <c r="W16">
         <v>2</v>
       </c>
-      <c r="N16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16">
+      <c r="X16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16">
         <v>6.48503859454389</v>
       </c>
-      <c r="P16">
+      <c r="Z16">
         <v>9</v>
       </c>
-      <c r="Q16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="AA16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1631,41 +2201,71 @@
       <c r="F17">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
+      <c r="G17">
+        <v>15</v>
       </c>
       <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17">
         <v>21</v>
       </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17">
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17">
         <v>0.2533349990844727</v>
       </c>
-      <c r="K17">
+      <c r="U17">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="V17">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="W17">
         <v>2</v>
       </c>
-      <c r="N17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17">
+      <c r="X17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17">
         <v>6.48503859454389</v>
       </c>
-      <c r="P17">
+      <c r="Z17">
         <v>9</v>
       </c>
-      <c r="Q17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="AA17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1684,41 +2284,71 @@
       <c r="F18">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
-        <v>18</v>
+      <c r="G18">
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
       </c>
       <c r="J18">
-        <v>6863.632073640823</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>16</v>
       </c>
       <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18">
+        <v>45</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18">
+        <v>6863.632073640823</v>
+      </c>
+      <c r="U18">
+        <v>14</v>
+      </c>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18">
         <v>3500</v>
       </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18">
+      <c r="X18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18">
         <v>23.03317819685746</v>
       </c>
-      <c r="P18">
+      <c r="Z18">
         <v>37</v>
       </c>
-      <c r="Q18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="AA18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1737,41 +2367,71 @@
       <c r="F19">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>18</v>
+      <c r="G19">
+        <v>17</v>
       </c>
       <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19">
         <v>45</v>
       </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19">
+      <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19">
         <v>5482.667498111725</v>
       </c>
-      <c r="K19">
+      <c r="U19">
         <v>11</v>
       </c>
-      <c r="L19">
+      <c r="V19">
         <v>9</v>
       </c>
-      <c r="M19">
+      <c r="W19">
         <v>3500</v>
       </c>
-      <c r="N19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19">
+      <c r="X19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19">
         <v>21.5058276138094</v>
       </c>
-      <c r="P19">
+      <c r="Z19">
         <v>40</v>
       </c>
-      <c r="Q19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="AA19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1790,41 +2450,71 @@
       <c r="F20">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
         <v>18</v>
       </c>
       <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20">
         <v>45</v>
       </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20">
+      <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20">
         <v>5474.00736451149</v>
       </c>
-      <c r="K20">
+      <c r="U20">
         <v>23</v>
       </c>
-      <c r="L20">
+      <c r="V20">
         <v>17</v>
       </c>
-      <c r="M20">
+      <c r="W20">
         <v>3500</v>
       </c>
-      <c r="N20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20">
+      <c r="X20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y20">
         <v>22.32211636468589</v>
       </c>
-      <c r="P20">
+      <c r="Z20">
         <v>41</v>
       </c>
-      <c r="Q20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="AA20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1843,41 +2533,71 @@
       <c r="F21">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
-        <v>18</v>
+      <c r="G21">
+        <v>19</v>
       </c>
       <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21">
         <v>45</v>
       </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21">
+      <c r="S21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21">
         <v>5703.154742002487</v>
       </c>
-      <c r="K21">
+      <c r="U21">
         <v>13</v>
       </c>
-      <c r="L21">
+      <c r="V21">
         <v>9</v>
       </c>
-      <c r="M21">
+      <c r="W21">
         <v>3500</v>
       </c>
-      <c r="N21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21">
+      <c r="X21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y21">
         <v>22.43200565894411</v>
       </c>
-      <c r="P21">
+      <c r="Z21">
         <v>33</v>
       </c>
-      <c r="Q21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="AA21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1896,41 +2616,71 @@
       <c r="F22">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>18</v>
+      <c r="G22">
+        <v>20</v>
       </c>
       <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22">
         <v>45</v>
       </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22">
+      <c r="S22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22">
         <v>481.6158399581909</v>
       </c>
-      <c r="K22">
+      <c r="U22">
         <v>14</v>
       </c>
-      <c r="L22">
+      <c r="V22">
         <v>13</v>
       </c>
-      <c r="M22">
+      <c r="W22">
         <v>800</v>
       </c>
-      <c r="N22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22">
+      <c r="X22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y22">
         <v>23.28557390420146</v>
       </c>
-      <c r="P22">
+      <c r="Z22">
         <v>37</v>
       </c>
-      <c r="Q22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="AA22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1949,41 +2699,71 @@
       <c r="F23">
         <v>21</v>
       </c>
-      <c r="G23" t="s">
-        <v>18</v>
+      <c r="G23">
+        <v>21</v>
       </c>
       <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23">
         <v>45</v>
       </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23">
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23">
         <v>1.644425392150879</v>
       </c>
-      <c r="K23">
+      <c r="U23">
         <v>40</v>
       </c>
-      <c r="L23">
+      <c r="V23">
         <v>43</v>
       </c>
-      <c r="M23">
+      <c r="W23">
         <v>3</v>
       </c>
-      <c r="N23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23">
+      <c r="X23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23">
         <v>31.93684940223405</v>
       </c>
-      <c r="P23">
+      <c r="Z23">
         <v>39</v>
       </c>
-      <c r="Q23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="AA23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2002,41 +2782,71 @@
       <c r="F24">
         <v>22</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
+      <c r="G24">
+        <v>22</v>
       </c>
       <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24">
         <v>45</v>
       </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24">
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24">
         <v>1.354963779449463</v>
       </c>
-      <c r="K24">
+      <c r="U24">
         <v>40</v>
       </c>
-      <c r="L24">
+      <c r="V24">
         <v>43</v>
       </c>
-      <c r="M24">
+      <c r="W24">
         <v>3</v>
       </c>
-      <c r="N24" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24">
+      <c r="X24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24">
         <v>31.93684940223405</v>
       </c>
-      <c r="P24">
+      <c r="Z24">
         <v>39</v>
       </c>
-      <c r="Q24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="AA24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2055,41 +2865,71 @@
       <c r="F25">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
-        <v>18</v>
+      <c r="G25">
+        <v>23</v>
       </c>
       <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25">
         <v>45</v>
       </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25">
+      <c r="S25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25">
         <v>1.331808805465698</v>
       </c>
-      <c r="K25">
+      <c r="U25">
         <v>40</v>
       </c>
-      <c r="L25">
+      <c r="V25">
         <v>43</v>
       </c>
-      <c r="M25">
+      <c r="W25">
         <v>3</v>
       </c>
-      <c r="N25" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25">
+      <c r="X25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y25">
         <v>31.93684940223405</v>
       </c>
-      <c r="P25">
+      <c r="Z25">
         <v>39</v>
       </c>
-      <c r="Q25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="AA25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2108,41 +2948,71 @@
       <c r="F26">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
+      <c r="G26">
+        <v>24</v>
       </c>
       <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26">
         <v>45</v>
       </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26">
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26">
         <v>7.295105934143066</v>
       </c>
-      <c r="K26">
+      <c r="U26">
         <v>23</v>
       </c>
-      <c r="L26">
+      <c r="V26">
         <v>21</v>
       </c>
-      <c r="M26">
+      <c r="W26">
         <v>12</v>
       </c>
-      <c r="N26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26">
+      <c r="X26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26">
         <v>27.95755849505835</v>
       </c>
-      <c r="P26">
+      <c r="Z26">
         <v>37</v>
       </c>
-      <c r="Q26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="AA26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2161,41 +3031,71 @@
       <c r="F27">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
-        <v>18</v>
+      <c r="G27">
+        <v>25</v>
       </c>
       <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27">
         <v>45</v>
       </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27">
+      <c r="S27" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27">
         <v>6.91139554977417</v>
       </c>
-      <c r="K27">
+      <c r="U27">
         <v>23</v>
       </c>
-      <c r="L27">
+      <c r="V27">
         <v>21</v>
       </c>
-      <c r="M27">
+      <c r="W27">
         <v>12</v>
       </c>
-      <c r="N27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27">
+      <c r="X27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27">
         <v>27.95755849505835</v>
       </c>
-      <c r="P27">
+      <c r="Z27">
         <v>37</v>
       </c>
-      <c r="Q27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="AA27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2214,41 +3114,71 @@
       <c r="F28">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
+      <c r="G28">
+        <v>26</v>
       </c>
       <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28">
         <v>45</v>
       </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28">
+      <c r="S28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28">
         <v>6.776224136352539</v>
       </c>
-      <c r="K28">
+      <c r="U28">
         <v>23</v>
       </c>
-      <c r="L28">
+      <c r="V28">
         <v>21</v>
       </c>
-      <c r="M28">
+      <c r="W28">
         <v>12</v>
       </c>
-      <c r="N28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28">
+      <c r="X28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y28">
         <v>27.95755849505835</v>
       </c>
-      <c r="P28">
+      <c r="Z28">
         <v>37</v>
       </c>
-      <c r="Q28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="AA28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2267,41 +3197,71 @@
       <c r="F29">
         <v>27</v>
       </c>
-      <c r="G29" t="s">
-        <v>18</v>
+      <c r="G29">
+        <v>27</v>
       </c>
       <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29">
         <v>45</v>
       </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29">
+      <c r="S29" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29">
         <v>19.8367817401886</v>
       </c>
-      <c r="K29">
+      <c r="U29">
         <v>23</v>
       </c>
-      <c r="L29">
+      <c r="V29">
         <v>21</v>
       </c>
-      <c r="M29">
+      <c r="W29">
         <v>12</v>
       </c>
-      <c r="N29" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29">
+      <c r="X29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y29">
         <v>27.95755849505835</v>
       </c>
-      <c r="P29">
+      <c r="Z29">
         <v>37</v>
       </c>
-      <c r="Q29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="AA29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2320,41 +3280,71 @@
       <c r="F30">
         <v>28</v>
       </c>
-      <c r="G30" t="s">
-        <v>18</v>
+      <c r="G30">
+        <v>28</v>
       </c>
       <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <v>28</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30">
         <v>45</v>
       </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30">
+      <c r="S30" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30">
         <v>7.109025478363037</v>
       </c>
-      <c r="K30">
+      <c r="U30">
         <v>23</v>
       </c>
-      <c r="L30">
+      <c r="V30">
         <v>21</v>
       </c>
-      <c r="M30">
+      <c r="W30">
         <v>12</v>
       </c>
-      <c r="N30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30">
+      <c r="X30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30">
         <v>27.95755849505835</v>
       </c>
-      <c r="P30">
+      <c r="Z30">
         <v>37</v>
       </c>
-      <c r="Q30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="AA30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2373,41 +3363,71 @@
       <c r="F31">
         <v>29</v>
       </c>
-      <c r="G31" t="s">
-        <v>18</v>
+      <c r="G31">
+        <v>29</v>
       </c>
       <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>29</v>
+      </c>
+      <c r="K31">
+        <v>29</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31">
         <v>45</v>
       </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31">
+      <c r="S31" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31">
         <v>7.242575168609619</v>
       </c>
-      <c r="K31">
+      <c r="U31">
         <v>23</v>
       </c>
-      <c r="L31">
+      <c r="V31">
         <v>21</v>
       </c>
-      <c r="M31">
+      <c r="W31">
         <v>12</v>
       </c>
-      <c r="N31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31">
+      <c r="X31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y31">
         <v>27.95755849505835</v>
       </c>
-      <c r="P31">
+      <c r="Z31">
         <v>37</v>
       </c>
-      <c r="Q31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="AA31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2426,41 +3446,71 @@
       <c r="F32">
         <v>30</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
+      <c r="G32">
+        <v>30</v>
       </c>
       <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32">
         <v>45</v>
       </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32">
+      <c r="S32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32">
         <v>7.108997344970703</v>
       </c>
-      <c r="K32">
+      <c r="U32">
         <v>23</v>
       </c>
-      <c r="L32">
+      <c r="V32">
         <v>21</v>
       </c>
-      <c r="M32">
+      <c r="W32">
         <v>12</v>
       </c>
-      <c r="N32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32">
         <v>27.95755849505835</v>
       </c>
-      <c r="P32">
+      <c r="Z32">
         <v>37</v>
       </c>
-      <c r="Q32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="AA32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2479,41 +3529,71 @@
       <c r="F33">
         <v>31</v>
       </c>
-      <c r="G33" t="s">
-        <v>18</v>
+      <c r="G33">
+        <v>31</v>
       </c>
       <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <v>31</v>
+      </c>
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>31</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>28</v>
+      </c>
+      <c r="R33">
         <v>45</v>
       </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33">
+      <c r="S33" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33">
         <v>0.9325089454650879</v>
       </c>
-      <c r="K33">
+      <c r="U33">
         <v>40</v>
       </c>
-      <c r="L33">
+      <c r="V33">
         <v>43</v>
       </c>
-      <c r="M33">
+      <c r="W33">
         <v>2</v>
       </c>
-      <c r="N33" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33">
+      <c r="X33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33">
         <v>31.93684940223405</v>
       </c>
-      <c r="P33">
+      <c r="Z33">
         <v>42</v>
       </c>
-      <c r="Q33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="AA33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2532,41 +3612,71 @@
       <c r="F34">
         <v>32</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
+      <c r="G34">
+        <v>32</v>
       </c>
       <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>32</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34">
         <v>45</v>
       </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34">
+      <c r="S34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34">
         <v>0.9534516334533691</v>
       </c>
-      <c r="K34">
+      <c r="U34">
         <v>40</v>
       </c>
-      <c r="L34">
+      <c r="V34">
         <v>43</v>
       </c>
-      <c r="M34">
+      <c r="W34">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34">
+      <c r="X34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y34">
         <v>31.93684940223405</v>
       </c>
-      <c r="P34">
+      <c r="Z34">
         <v>42</v>
       </c>
-      <c r="Q34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="AA34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2585,41 +3695,71 @@
       <c r="F35">
         <v>33</v>
       </c>
-      <c r="G35" t="s">
-        <v>18</v>
+      <c r="G35">
+        <v>33</v>
       </c>
       <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>33</v>
+      </c>
+      <c r="K35">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35">
         <v>45</v>
       </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35">
+      <c r="S35" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35">
         <v>0.9275221824645996</v>
       </c>
-      <c r="K35">
+      <c r="U35">
         <v>40</v>
       </c>
-      <c r="L35">
+      <c r="V35">
         <v>43</v>
       </c>
-      <c r="M35">
+      <c r="W35">
         <v>2</v>
       </c>
-      <c r="N35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35">
+      <c r="X35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y35">
         <v>31.93684940223405</v>
       </c>
-      <c r="P35">
+      <c r="Z35">
         <v>42</v>
       </c>
-      <c r="Q35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="AA35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2638,41 +3778,71 @@
       <c r="F36">
         <v>34</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
+      <c r="G36">
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>34</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>28</v>
+      </c>
+      <c r="R36">
         <v>45</v>
       </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36">
+      <c r="S36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36">
         <v>0.937495231628418</v>
       </c>
-      <c r="K36">
+      <c r="U36">
         <v>40</v>
       </c>
-      <c r="L36">
+      <c r="V36">
         <v>43</v>
       </c>
-      <c r="M36">
+      <c r="W36">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36">
+      <c r="X36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y36">
         <v>31.93684940223405</v>
       </c>
-      <c r="P36">
+      <c r="Z36">
         <v>42</v>
       </c>
-      <c r="Q36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="AA36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2691,41 +3861,71 @@
       <c r="F37">
         <v>35</v>
       </c>
-      <c r="G37" t="s">
-        <v>18</v>
+      <c r="G37">
+        <v>35</v>
       </c>
       <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37">
         <v>45</v>
       </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37">
+      <c r="S37" t="s">
+        <v>39</v>
+      </c>
+      <c r="T37">
         <v>0.9404876232147217</v>
       </c>
-      <c r="K37">
+      <c r="U37">
         <v>40</v>
       </c>
-      <c r="L37">
+      <c r="V37">
         <v>43</v>
       </c>
-      <c r="M37">
+      <c r="W37">
         <v>2</v>
       </c>
-      <c r="N37" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37">
+      <c r="X37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y37">
         <v>31.93684940223405</v>
       </c>
-      <c r="P37">
+      <c r="Z37">
         <v>42</v>
       </c>
-      <c r="Q37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="AA37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2744,41 +3944,71 @@
       <c r="F38">
         <v>36</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
+      <c r="G38">
+        <v>36</v>
       </c>
       <c r="H38">
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>36</v>
+      </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>36</v>
+      </c>
+      <c r="P38">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38">
         <v>45</v>
       </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38">
+      <c r="S38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38">
         <v>0.8969087600708008</v>
       </c>
-      <c r="K38">
+      <c r="U38">
         <v>40</v>
       </c>
-      <c r="L38">
+      <c r="V38">
         <v>43</v>
       </c>
-      <c r="M38">
+      <c r="W38">
         <v>2</v>
       </c>
-      <c r="N38" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38">
+      <c r="X38" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y38">
         <v>31.93684940223405</v>
       </c>
-      <c r="P38">
+      <c r="Z38">
         <v>42</v>
       </c>
-      <c r="Q38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="AA38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2797,41 +4027,71 @@
       <c r="F39">
         <v>37</v>
       </c>
-      <c r="G39" t="s">
-        <v>18</v>
+      <c r="G39">
+        <v>37</v>
       </c>
       <c r="H39">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>37</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>37</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39">
+      <c r="S39" t="s">
+        <v>39</v>
+      </c>
+      <c r="T39">
         <v>0.7695727348327637</v>
       </c>
-      <c r="K39">
+      <c r="U39">
         <v>40</v>
       </c>
-      <c r="L39">
+      <c r="V39">
         <v>43</v>
       </c>
-      <c r="M39">
+      <c r="W39">
         <v>2</v>
       </c>
-      <c r="N39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39">
+      <c r="X39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y39">
         <v>31.93684940223405</v>
       </c>
-      <c r="P39">
+      <c r="Z39">
         <v>42</v>
       </c>
-      <c r="Q39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="AA39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2850,41 +4110,71 @@
       <c r="F40">
         <v>38</v>
       </c>
-      <c r="G40" t="s">
-        <v>19</v>
+      <c r="G40">
+        <v>38</v>
       </c>
       <c r="H40">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <v>38</v>
+      </c>
+      <c r="K40">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40">
         <v>23</v>
       </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40">
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40">
         <v>143.3426549434662</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>3500</v>
       </c>
-      <c r="N40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40">
+      <c r="X40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y40">
         <v>0.7071067811865476</v>
       </c>
-      <c r="P40">
+      <c r="Z40">
         <v>5</v>
       </c>
-      <c r="Q40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="AA40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2903,41 +4193,71 @@
       <c r="F41">
         <v>39</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
+      <c r="G41">
+        <v>39</v>
       </c>
       <c r="H41">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>39</v>
+      </c>
+      <c r="K41">
+        <v>39</v>
+      </c>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>39</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41">
         <v>23</v>
       </c>
-      <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41">
+      <c r="S41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T41">
         <v>336.5609285831451</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>1</v>
       </c>
-      <c r="M41">
+      <c r="W41">
         <v>3500</v>
       </c>
-      <c r="N41" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41">
+      <c r="X41" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y41">
         <v>0.6749655638598864</v>
       </c>
-      <c r="P41">
+      <c r="Z41">
         <v>7</v>
       </c>
-      <c r="Q41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="AA41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2956,41 +4276,71 @@
       <c r="F42">
         <v>40</v>
       </c>
-      <c r="G42" t="s">
-        <v>19</v>
+      <c r="G42">
+        <v>40</v>
       </c>
       <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>40</v>
+      </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>40</v>
+      </c>
+      <c r="P42">
+        <v>40</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>29</v>
+      </c>
+      <c r="R42">
         <v>23</v>
       </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42">
+      <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42">
         <v>115.638744354248</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>3500</v>
       </c>
-      <c r="N42" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42">
+      <c r="X42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y42">
         <v>0.5464006945532414</v>
       </c>
-      <c r="P42">
+      <c r="Z42">
         <v>6</v>
       </c>
-      <c r="Q42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="AA42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3009,41 +4359,71 @@
       <c r="F43">
         <v>41</v>
       </c>
-      <c r="G43" t="s">
-        <v>19</v>
+      <c r="G43">
+        <v>41</v>
       </c>
       <c r="H43">
+        <v>41</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>41</v>
+      </c>
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>41</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43">
         <v>23</v>
       </c>
-      <c r="I43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43">
+      <c r="S43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43">
         <v>228.8289649486542</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>3500</v>
       </c>
-      <c r="N43" t="s">
-        <v>56</v>
-      </c>
-      <c r="O43">
+      <c r="X43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y43">
         <v>0.7713892158398701</v>
       </c>
-      <c r="P43">
+      <c r="Z43">
         <v>9</v>
       </c>
-      <c r="Q43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="AA43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3062,41 +4442,71 @@
       <c r="F44">
         <v>42</v>
       </c>
-      <c r="G44" t="s">
-        <v>19</v>
+      <c r="G44">
+        <v>42</v>
       </c>
       <c r="H44">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <v>42</v>
+      </c>
+      <c r="K44">
+        <v>42</v>
+      </c>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>42</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>29</v>
+      </c>
+      <c r="R44">
         <v>23</v>
       </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44">
+      <c r="S44" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44">
         <v>54.34819102287292</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>1</v>
       </c>
-      <c r="M44">
+      <c r="W44">
         <v>800</v>
       </c>
-      <c r="N44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O44">
+      <c r="X44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y44">
         <v>0.6853971669453542</v>
       </c>
-      <c r="P44">
+      <c r="Z44">
         <v>9</v>
       </c>
-      <c r="Q44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="AA44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3115,41 +4525,71 @@
       <c r="F45">
         <v>43</v>
       </c>
-      <c r="G45" t="s">
-        <v>19</v>
+      <c r="G45">
+        <v>43</v>
       </c>
       <c r="H45">
+        <v>43</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>43</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>43</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>29</v>
+      </c>
+      <c r="R45">
         <v>23</v>
       </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45">
+      <c r="S45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45">
         <v>2.511287927627563</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>4</v>
       </c>
-      <c r="M45">
+      <c r="W45">
         <v>12</v>
       </c>
-      <c r="N45" t="s">
-        <v>58</v>
-      </c>
-      <c r="O45">
+      <c r="X45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y45">
         <v>1.353887892386885</v>
       </c>
-      <c r="P45">
+      <c r="Z45">
         <v>9</v>
       </c>
-      <c r="Q45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="AA45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3168,41 +4608,71 @@
       <c r="F46">
         <v>44</v>
       </c>
-      <c r="G46" t="s">
-        <v>19</v>
+      <c r="G46">
+        <v>44</v>
       </c>
       <c r="H46">
+        <v>44</v>
+      </c>
+      <c r="I46">
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <v>44</v>
+      </c>
+      <c r="K46">
+        <v>44</v>
+      </c>
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46">
+        <v>44</v>
+      </c>
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>44</v>
+      </c>
+      <c r="P46">
+        <v>44</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46">
         <v>23</v>
       </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46">
+      <c r="S46" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46">
         <v>2.620996952056885</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
         <v>4</v>
       </c>
-      <c r="M46">
+      <c r="W46">
         <v>12</v>
       </c>
-      <c r="N46" t="s">
-        <v>58</v>
-      </c>
-      <c r="O46">
+      <c r="X46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y46">
         <v>1.353887892386885</v>
       </c>
-      <c r="P46">
+      <c r="Z46">
         <v>9</v>
       </c>
-      <c r="Q46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="AA46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3221,41 +4691,71 @@
       <c r="F47">
         <v>45</v>
       </c>
-      <c r="G47" t="s">
-        <v>19</v>
+      <c r="G47">
+        <v>45</v>
       </c>
       <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>45</v>
+      </c>
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>45</v>
+      </c>
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>45</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>29</v>
+      </c>
+      <c r="R47">
         <v>23</v>
       </c>
-      <c r="I47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47">
+      <c r="S47" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47">
         <v>0.3061821460723877</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
         <v>2</v>
       </c>
-      <c r="N47" t="s">
-        <v>59</v>
-      </c>
-      <c r="O47">
+      <c r="X47" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y47">
         <v>5.873473737110042</v>
       </c>
-      <c r="P47">
+      <c r="Z47">
         <v>14</v>
       </c>
-      <c r="Q47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="AA47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3274,41 +4774,71 @@
       <c r="F48">
         <v>46</v>
       </c>
-      <c r="G48" t="s">
-        <v>19</v>
+      <c r="G48">
+        <v>46</v>
       </c>
       <c r="H48">
+        <v>46</v>
+      </c>
+      <c r="I48">
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <v>46</v>
+      </c>
+      <c r="K48">
+        <v>46</v>
+      </c>
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>46</v>
+      </c>
+      <c r="P48">
+        <v>46</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>29</v>
+      </c>
+      <c r="R48">
         <v>23</v>
       </c>
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48">
+      <c r="S48" t="s">
+        <v>39</v>
+      </c>
+      <c r="T48">
         <v>0.3550121784210205</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <v>2</v>
       </c>
-      <c r="N48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O48">
+      <c r="X48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y48">
         <v>5.873473737110042</v>
       </c>
-      <c r="P48">
+      <c r="Z48">
         <v>14</v>
       </c>
-      <c r="Q48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="AA48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3327,41 +4857,71 @@
       <c r="F49">
         <v>47</v>
       </c>
-      <c r="G49" t="s">
-        <v>19</v>
+      <c r="G49">
+        <v>47</v>
       </c>
       <c r="H49">
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <v>47</v>
+      </c>
+      <c r="J49">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>47</v>
+      </c>
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49">
+        <v>47</v>
+      </c>
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>47</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49">
         <v>23</v>
       </c>
-      <c r="I49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49">
+      <c r="S49" t="s">
+        <v>39</v>
+      </c>
+      <c r="T49">
         <v>0.3290810585021973</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <v>2</v>
       </c>
-      <c r="N49" t="s">
-        <v>59</v>
-      </c>
-      <c r="O49">
+      <c r="X49" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y49">
         <v>5.873473737110042</v>
       </c>
-      <c r="P49">
+      <c r="Z49">
         <v>14</v>
       </c>
-      <c r="Q49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="AA49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3380,41 +4940,71 @@
       <c r="F50">
         <v>48</v>
       </c>
-      <c r="G50" t="s">
-        <v>19</v>
+      <c r="G50">
+        <v>48</v>
       </c>
       <c r="H50">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+      <c r="J50">
+        <v>48</v>
+      </c>
+      <c r="K50">
+        <v>48</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>48</v>
+      </c>
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>48</v>
+      </c>
+      <c r="P50">
+        <v>48</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>29</v>
+      </c>
+      <c r="R50">
         <v>23</v>
       </c>
-      <c r="I50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50">
+      <c r="S50" t="s">
+        <v>39</v>
+      </c>
+      <c r="T50">
         <v>0.3460345268249512</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
         <v>2</v>
       </c>
-      <c r="N50" t="s">
-        <v>59</v>
-      </c>
-      <c r="O50">
+      <c r="X50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y50">
         <v>5.873473737110042</v>
       </c>
-      <c r="P50">
+      <c r="Z50">
         <v>14</v>
       </c>
-      <c r="Q50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="AA50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3433,41 +5023,71 @@
       <c r="F51">
         <v>49</v>
       </c>
-      <c r="G51" t="s">
-        <v>19</v>
+      <c r="G51">
+        <v>49</v>
       </c>
       <c r="H51">
+        <v>49</v>
+      </c>
+      <c r="I51">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <v>49</v>
+      </c>
+      <c r="K51">
+        <v>49</v>
+      </c>
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>49</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>29</v>
+      </c>
+      <c r="R51">
         <v>23</v>
       </c>
-      <c r="I51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51">
+      <c r="S51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T51">
         <v>0.3169212341308594</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>2</v>
       </c>
-      <c r="N51" t="s">
-        <v>59</v>
-      </c>
-      <c r="O51">
+      <c r="X51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y51">
         <v>5.873473737110042</v>
       </c>
-      <c r="P51">
+      <c r="Z51">
         <v>14</v>
       </c>
-      <c r="Q51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="AA51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3486,41 +5106,71 @@
       <c r="F52">
         <v>50</v>
       </c>
-      <c r="G52" t="s">
-        <v>19</v>
+      <c r="G52">
+        <v>50</v>
       </c>
       <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>29</v>
+      </c>
+      <c r="R52">
         <v>23</v>
       </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52">
+      <c r="S52" t="s">
+        <v>39</v>
+      </c>
+      <c r="T52">
         <v>0.3370993137359619</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
         <v>2</v>
       </c>
-      <c r="N52" t="s">
-        <v>59</v>
-      </c>
-      <c r="O52">
+      <c r="X52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y52">
         <v>5.873473737110042</v>
       </c>
-      <c r="P52">
+      <c r="Z52">
         <v>14</v>
       </c>
-      <c r="Q52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="AA52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3539,41 +5189,71 @@
       <c r="F53">
         <v>51</v>
       </c>
-      <c r="G53" t="s">
-        <v>19</v>
+      <c r="G53">
+        <v>51</v>
       </c>
       <c r="H53">
+        <v>51</v>
+      </c>
+      <c r="I53">
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <v>51</v>
+      </c>
+      <c r="K53">
+        <v>51</v>
+      </c>
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53">
+        <v>51</v>
+      </c>
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>51</v>
+      </c>
+      <c r="P53">
+        <v>51</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>29</v>
+      </c>
+      <c r="R53">
         <v>23</v>
       </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53">
+      <c r="S53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T53">
         <v>0.33310866355896</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
         <v>2</v>
       </c>
-      <c r="N53" t="s">
-        <v>59</v>
-      </c>
-      <c r="O53">
+      <c r="X53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y53">
         <v>5.873473737110042</v>
       </c>
-      <c r="P53">
+      <c r="Z53">
         <v>14</v>
       </c>
-      <c r="Q53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="AA53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3592,41 +5272,71 @@
       <c r="F54">
         <v>52</v>
       </c>
-      <c r="G54" t="s">
-        <v>19</v>
+      <c r="G54">
+        <v>52</v>
       </c>
       <c r="H54">
+        <v>52</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <v>52</v>
+      </c>
+      <c r="K54">
+        <v>52</v>
+      </c>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>52</v>
+      </c>
+      <c r="P54">
+        <v>52</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R54">
         <v>23</v>
       </c>
-      <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54">
+      <c r="S54" t="s">
+        <v>39</v>
+      </c>
+      <c r="T54">
         <v>0.3091740608215332</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
         <v>2</v>
       </c>
-      <c r="N54" t="s">
-        <v>59</v>
-      </c>
-      <c r="O54">
+      <c r="X54" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y54">
         <v>5.873473737110042</v>
       </c>
-      <c r="P54">
+      <c r="Z54">
         <v>14</v>
       </c>
-      <c r="Q54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="AA54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3645,41 +5355,71 @@
       <c r="F55">
         <v>53</v>
       </c>
-      <c r="G55" t="s">
-        <v>19</v>
+      <c r="G55">
+        <v>53</v>
       </c>
       <c r="H55">
+        <v>53</v>
+      </c>
+      <c r="I55">
+        <v>53</v>
+      </c>
+      <c r="J55">
+        <v>53</v>
+      </c>
+      <c r="K55">
+        <v>53</v>
+      </c>
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55">
+        <v>53</v>
+      </c>
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>53</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55">
         <v>23</v>
       </c>
-      <c r="I55" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55">
+      <c r="S55" t="s">
+        <v>39</v>
+      </c>
+      <c r="T55">
         <v>0.4902241230010986</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
         <v>2</v>
       </c>
-      <c r="N55" t="s">
-        <v>59</v>
-      </c>
-      <c r="O55">
+      <c r="X55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y55">
         <v>5.873473737110042</v>
       </c>
-      <c r="P55">
+      <c r="Z55">
         <v>14</v>
       </c>
-      <c r="Q55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="AA55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3698,41 +5438,71 @@
       <c r="F56">
         <v>54</v>
       </c>
-      <c r="G56" t="s">
-        <v>19</v>
+      <c r="G56">
+        <v>54</v>
       </c>
       <c r="H56">
+        <v>54</v>
+      </c>
+      <c r="I56">
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <v>54</v>
+      </c>
+      <c r="K56">
+        <v>54</v>
+      </c>
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56">
+        <v>54</v>
+      </c>
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>54</v>
+      </c>
+      <c r="P56">
+        <v>54</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>29</v>
+      </c>
+      <c r="R56">
         <v>23</v>
       </c>
-      <c r="I56" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56">
+      <c r="S56" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56">
         <v>0.297224760055542</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
         <v>2</v>
       </c>
-      <c r="N56" t="s">
-        <v>59</v>
-      </c>
-      <c r="O56">
+      <c r="X56" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y56">
         <v>5.873473737110042</v>
       </c>
-      <c r="P56">
+      <c r="Z56">
         <v>14</v>
       </c>
-      <c r="Q56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="AA56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3751,41 +5521,71 @@
       <c r="F57">
         <v>55</v>
       </c>
-      <c r="G57" t="s">
-        <v>19</v>
+      <c r="G57">
+        <v>55</v>
       </c>
       <c r="H57">
+        <v>55</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <v>55</v>
+      </c>
+      <c r="K57">
+        <v>55</v>
+      </c>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>55</v>
+      </c>
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <v>55</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57">
         <v>23</v>
       </c>
-      <c r="I57" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57">
+      <c r="S57" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57">
         <v>0.305999755859375</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
         <v>2</v>
       </c>
-      <c r="N57" t="s">
-        <v>59</v>
-      </c>
-      <c r="O57">
+      <c r="X57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y57">
         <v>5.873473737110042</v>
       </c>
-      <c r="P57">
+      <c r="Z57">
         <v>14</v>
       </c>
-      <c r="Q57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="AA57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3804,41 +5604,71 @@
       <c r="F58">
         <v>56</v>
       </c>
-      <c r="G58" t="s">
-        <v>19</v>
+      <c r="G58">
+        <v>56</v>
       </c>
       <c r="H58">
+        <v>56</v>
+      </c>
+      <c r="I58">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <v>56</v>
+      </c>
+      <c r="K58">
+        <v>56</v>
+      </c>
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58">
+        <v>56</v>
+      </c>
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>56</v>
+      </c>
+      <c r="P58">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58">
         <v>23</v>
       </c>
-      <c r="I58" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58">
+      <c r="S58" t="s">
+        <v>39</v>
+      </c>
+      <c r="T58">
         <v>0.3081910610198975</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
         <v>2</v>
       </c>
-      <c r="N58" t="s">
-        <v>59</v>
-      </c>
-      <c r="O58">
+      <c r="X58" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y58">
         <v>5.873473737110042</v>
       </c>
-      <c r="P58">
+      <c r="Z58">
         <v>14</v>
       </c>
-      <c r="Q58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="AA58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3857,41 +5687,71 @@
       <c r="F59">
         <v>57</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
+      <c r="G59">
+        <v>57</v>
       </c>
       <c r="H59">
+        <v>57</v>
+      </c>
+      <c r="I59">
+        <v>57</v>
+      </c>
+      <c r="J59">
+        <v>57</v>
+      </c>
+      <c r="K59">
+        <v>57</v>
+      </c>
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <v>57</v>
+      </c>
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>57</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
         <v>23</v>
       </c>
-      <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59">
+      <c r="S59" t="s">
+        <v>39</v>
+      </c>
+      <c r="T59">
         <v>0.3171143531799316</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
         <v>2</v>
       </c>
-      <c r="N59" t="s">
-        <v>59</v>
-      </c>
-      <c r="O59">
+      <c r="X59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y59">
         <v>5.873473737110042</v>
       </c>
-      <c r="P59">
+      <c r="Z59">
         <v>14</v>
       </c>
-      <c r="Q59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="AA59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3910,41 +5770,71 @@
       <c r="F60">
         <v>58</v>
       </c>
-      <c r="G60" t="s">
-        <v>19</v>
+      <c r="G60">
+        <v>58</v>
       </c>
       <c r="H60">
+        <v>58</v>
+      </c>
+      <c r="I60">
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <v>58</v>
+      </c>
+      <c r="K60">
+        <v>58</v>
+      </c>
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>58</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>29</v>
+      </c>
+      <c r="R60">
         <v>23</v>
       </c>
-      <c r="I60" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60">
+      <c r="S60" t="s">
+        <v>39</v>
+      </c>
+      <c r="T60">
         <v>0.3231005668640137</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
         <v>2</v>
       </c>
-      <c r="N60" t="s">
-        <v>59</v>
-      </c>
-      <c r="O60">
+      <c r="X60" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y60">
         <v>5.873473737110042</v>
       </c>
-      <c r="P60">
+      <c r="Z60">
         <v>14</v>
       </c>
-      <c r="Q60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="AA60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3963,41 +5853,71 @@
       <c r="F61">
         <v>59</v>
       </c>
-      <c r="G61" t="s">
-        <v>19</v>
+      <c r="G61">
+        <v>59</v>
       </c>
       <c r="H61">
+        <v>59</v>
+      </c>
+      <c r="I61">
+        <v>59</v>
+      </c>
+      <c r="J61">
+        <v>59</v>
+      </c>
+      <c r="K61">
+        <v>59</v>
+      </c>
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61">
+        <v>59</v>
+      </c>
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61">
+        <v>59</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>29</v>
+      </c>
+      <c r="R61">
         <v>23</v>
       </c>
-      <c r="I61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61">
+      <c r="S61" t="s">
+        <v>41</v>
+      </c>
+      <c r="T61">
         <v>772.9589035511017</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>2</v>
       </c>
-      <c r="M61">
+      <c r="W61">
         <v>30000</v>
       </c>
-      <c r="N61" t="s">
-        <v>60</v>
-      </c>
-      <c r="O61">
+      <c r="X61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y61">
         <v>0.7713892158398701</v>
       </c>
-      <c r="P61">
+      <c r="Z61">
         <v>7</v>
       </c>
-      <c r="Q61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="AA61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4016,41 +5936,71 @@
       <c r="F62">
         <v>60</v>
       </c>
-      <c r="G62" t="s">
-        <v>20</v>
+      <c r="G62">
+        <v>60</v>
       </c>
       <c r="H62">
+        <v>60</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>60</v>
+      </c>
+      <c r="K62">
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>60</v>
+      </c>
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="P62">
+        <v>60</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62">
         <v>61</v>
       </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62">
+      <c r="S62" t="s">
+        <v>38</v>
+      </c>
+      <c r="T62">
         <v>8890.589658498764</v>
       </c>
-      <c r="K62">
+      <c r="U62">
         <v>12</v>
       </c>
-      <c r="L62">
+      <c r="V62">
         <v>7</v>
       </c>
-      <c r="M62">
+      <c r="W62">
         <v>3500</v>
       </c>
-      <c r="N62" t="s">
-        <v>61</v>
-      </c>
-      <c r="O62">
+      <c r="X62" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y62">
         <v>10.3825391792993</v>
       </c>
-      <c r="P62">
+      <c r="Z62">
         <v>42</v>
       </c>
-      <c r="Q62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="AA62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4069,41 +6019,71 @@
       <c r="F63">
         <v>61</v>
       </c>
-      <c r="G63" t="s">
-        <v>20</v>
+      <c r="G63">
+        <v>61</v>
       </c>
       <c r="H63">
         <v>61</v>
       </c>
-      <c r="I63" t="s">
-        <v>28</v>
+      <c r="I63">
+        <v>61</v>
       </c>
       <c r="J63">
+        <v>61</v>
+      </c>
+      <c r="K63">
+        <v>61</v>
+      </c>
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63">
+        <v>61</v>
+      </c>
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>61</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63">
+        <v>61</v>
+      </c>
+      <c r="S63" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63">
         <v>9006.591652393341</v>
       </c>
-      <c r="K63">
+      <c r="U63">
         <v>11</v>
       </c>
-      <c r="L63">
+      <c r="V63">
         <v>7</v>
       </c>
-      <c r="M63">
+      <c r="W63">
         <v>3500</v>
       </c>
-      <c r="N63" t="s">
-        <v>62</v>
-      </c>
-      <c r="O63">
+      <c r="X63" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y63">
         <v>18.13941556905572</v>
       </c>
-      <c r="P63">
+      <c r="Z63">
         <v>45</v>
       </c>
-      <c r="Q63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="AA63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4122,41 +6102,71 @@
       <c r="F64">
         <v>62</v>
       </c>
-      <c r="G64" t="s">
-        <v>20</v>
+      <c r="G64">
+        <v>62</v>
       </c>
       <c r="H64">
+        <v>62</v>
+      </c>
+      <c r="I64">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <v>62</v>
+      </c>
+      <c r="K64">
+        <v>62</v>
+      </c>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>62</v>
+      </c>
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>62</v>
+      </c>
+      <c r="P64">
+        <v>62</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R64">
         <v>61</v>
       </c>
-      <c r="I64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64">
+      <c r="S64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T64">
         <v>9859.745996236801</v>
       </c>
-      <c r="K64">
+      <c r="U64">
         <v>10</v>
       </c>
-      <c r="L64">
+      <c r="V64">
         <v>3</v>
       </c>
-      <c r="M64">
+      <c r="W64">
         <v>3500</v>
       </c>
-      <c r="N64" t="s">
-        <v>63</v>
-      </c>
-      <c r="O64">
+      <c r="X64" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y64">
         <v>13.97970618603245</v>
       </c>
-      <c r="P64">
+      <c r="Z64">
         <v>37</v>
       </c>
-      <c r="Q64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="AA64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4175,41 +6185,71 @@
       <c r="F65">
         <v>63</v>
       </c>
-      <c r="G65" t="s">
-        <v>20</v>
+      <c r="G65">
+        <v>63</v>
       </c>
       <c r="H65">
+        <v>63</v>
+      </c>
+      <c r="I65">
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <v>63</v>
+      </c>
+      <c r="K65">
+        <v>63</v>
+      </c>
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65">
+        <v>63</v>
+      </c>
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>63</v>
+      </c>
+      <c r="P65">
+        <v>63</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65">
         <v>61</v>
       </c>
-      <c r="I65" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65">
+      <c r="S65" t="s">
+        <v>39</v>
+      </c>
+      <c r="T65">
         <v>781.5920314788818</v>
       </c>
-      <c r="K65">
+      <c r="U65">
         <v>16</v>
       </c>
-      <c r="L65">
+      <c r="V65">
         <v>11</v>
       </c>
-      <c r="M65">
+      <c r="W65">
         <v>800</v>
       </c>
-      <c r="N65" t="s">
-        <v>64</v>
-      </c>
-      <c r="O65">
+      <c r="X65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y65">
         <v>24.89416628837467</v>
       </c>
-      <c r="P65">
+      <c r="Z65">
         <v>44</v>
       </c>
-      <c r="Q65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="AA65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4228,41 +6268,71 @@
       <c r="F66">
         <v>64</v>
       </c>
-      <c r="G66" t="s">
-        <v>20</v>
+      <c r="G66">
+        <v>64</v>
       </c>
       <c r="H66">
+        <v>64</v>
+      </c>
+      <c r="I66">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <v>64</v>
+      </c>
+      <c r="K66">
+        <v>64</v>
+      </c>
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66">
+        <v>64</v>
+      </c>
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>64</v>
+      </c>
+      <c r="P66">
+        <v>64</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>30</v>
+      </c>
+      <c r="R66">
         <v>61</v>
       </c>
-      <c r="I66" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66">
+      <c r="S66" t="s">
+        <v>39</v>
+      </c>
+      <c r="T66">
         <v>11.67682313919067</v>
       </c>
-      <c r="K66">
+      <c r="U66">
         <v>5</v>
       </c>
-      <c r="L66">
+      <c r="V66">
         <v>7</v>
       </c>
-      <c r="M66">
+      <c r="W66">
         <v>12</v>
       </c>
-      <c r="N66" t="s">
-        <v>65</v>
-      </c>
-      <c r="O66">
+      <c r="X66" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y66">
         <v>20.5262735296371</v>
       </c>
-      <c r="P66">
+      <c r="Z66">
         <v>46</v>
       </c>
-      <c r="Q66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="AA66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4281,41 +6351,71 @@
       <c r="F67">
         <v>65</v>
       </c>
-      <c r="G67" t="s">
-        <v>20</v>
+      <c r="G67">
+        <v>65</v>
       </c>
       <c r="H67">
+        <v>65</v>
+      </c>
+      <c r="I67">
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <v>65</v>
+      </c>
+      <c r="K67">
+        <v>65</v>
+      </c>
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67">
+        <v>65</v>
+      </c>
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>65</v>
+      </c>
+      <c r="P67">
+        <v>65</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67">
         <v>61</v>
       </c>
-      <c r="I67" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67">
+      <c r="S67" t="s">
+        <v>39</v>
+      </c>
+      <c r="T67">
         <v>1.184829950332642</v>
       </c>
-      <c r="K67">
+      <c r="U67">
         <v>14</v>
       </c>
-      <c r="L67">
+      <c r="V67">
         <v>4</v>
       </c>
-      <c r="M67">
+      <c r="W67">
         <v>2</v>
       </c>
-      <c r="N67" t="s">
-        <v>66</v>
-      </c>
-      <c r="O67">
+      <c r="X67" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y67">
         <v>36.71300316349169</v>
       </c>
-      <c r="P67">
+      <c r="Z67">
         <v>50</v>
       </c>
-      <c r="Q67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="AA67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4334,41 +6434,71 @@
       <c r="F68">
         <v>66</v>
       </c>
-      <c r="G68" t="s">
-        <v>21</v>
+      <c r="G68">
+        <v>66</v>
       </c>
       <c r="H68">
+        <v>66</v>
+      </c>
+      <c r="I68">
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <v>66</v>
+      </c>
+      <c r="K68">
+        <v>66</v>
+      </c>
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68">
+        <v>66</v>
+      </c>
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>66</v>
+      </c>
+      <c r="P68">
+        <v>66</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>31</v>
+      </c>
+      <c r="R68">
         <v>12</v>
       </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68">
+      <c r="S68" t="s">
+        <v>38</v>
+      </c>
+      <c r="T68">
         <v>1193.791316986084</v>
       </c>
-      <c r="K68">
+      <c r="U68">
         <v>6</v>
       </c>
-      <c r="L68">
+      <c r="V68">
         <v>13</v>
       </c>
-      <c r="M68">
+      <c r="W68">
         <v>30000</v>
       </c>
-      <c r="N68" t="s">
-        <v>67</v>
-      </c>
-      <c r="O68">
+      <c r="X68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y68">
         <v>1.7552108968319</v>
       </c>
-      <c r="P68">
+      <c r="Z68">
         <v>8</v>
       </c>
-      <c r="Q68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="AA68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4387,41 +6517,71 @@
       <c r="F69">
         <v>67</v>
       </c>
-      <c r="G69" t="s">
-        <v>22</v>
+      <c r="G69">
+        <v>67</v>
       </c>
       <c r="H69">
+        <v>67</v>
+      </c>
+      <c r="I69">
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>67</v>
+      </c>
+      <c r="K69">
+        <v>67</v>
+      </c>
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69">
+        <v>67</v>
+      </c>
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>67</v>
+      </c>
+      <c r="P69">
+        <v>67</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>32</v>
+      </c>
+      <c r="R69">
         <v>189</v>
       </c>
-      <c r="I69" t="s">
-        <v>30</v>
-      </c>
-      <c r="J69">
+      <c r="S69" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69">
         <v>13078.54700064659</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
         <v>300</v>
       </c>
-      <c r="N69" t="s">
-        <v>68</v>
-      </c>
-      <c r="O69">
+      <c r="X69" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y69">
         <v>15.24723338735794</v>
       </c>
-      <c r="P69">
+      <c r="Z69">
         <v>86</v>
       </c>
-      <c r="Q69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="AA69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4440,41 +6600,71 @@
       <c r="F70">
         <v>68</v>
       </c>
-      <c r="G70" t="s">
-        <v>23</v>
+      <c r="G70">
+        <v>68</v>
       </c>
       <c r="H70">
+        <v>68</v>
+      </c>
+      <c r="I70">
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <v>68</v>
+      </c>
+      <c r="K70">
+        <v>68</v>
+      </c>
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
+        <v>68</v>
+      </c>
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>68</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70">
         <v>4</v>
       </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70">
+      <c r="S70" t="s">
+        <v>38</v>
+      </c>
+      <c r="T70">
         <v>0.2463405132293701</v>
       </c>
-      <c r="K70">
+      <c r="U70">
         <v>1</v>
       </c>
-      <c r="L70">
+      <c r="V70">
         <v>1</v>
       </c>
-      <c r="M70">
+      <c r="W70">
         <v>3500</v>
       </c>
-      <c r="N70" t="s">
-        <v>69</v>
-      </c>
-      <c r="O70">
+      <c r="X70" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y70">
         <v>0.5</v>
       </c>
-      <c r="P70">
+      <c r="Z70">
         <v>1</v>
       </c>
-      <c r="Q70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="AA70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4493,41 +6683,71 @@
       <c r="F71">
         <v>69</v>
       </c>
-      <c r="G71" t="s">
-        <v>23</v>
+      <c r="G71">
+        <v>69</v>
       </c>
       <c r="H71">
+        <v>69</v>
+      </c>
+      <c r="I71">
+        <v>69</v>
+      </c>
+      <c r="J71">
+        <v>69</v>
+      </c>
+      <c r="K71">
+        <v>69</v>
+      </c>
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71">
+        <v>69</v>
+      </c>
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>69</v>
+      </c>
+      <c r="P71">
+        <v>69</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71">
         <v>4</v>
       </c>
-      <c r="I71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71">
+      <c r="S71" t="s">
+        <v>38</v>
+      </c>
+      <c r="T71">
         <v>0.2742669582366943</v>
       </c>
-      <c r="K71">
+      <c r="U71">
         <v>1</v>
       </c>
-      <c r="L71">
+      <c r="V71">
         <v>1</v>
       </c>
-      <c r="M71">
+      <c r="W71">
         <v>3500</v>
       </c>
-      <c r="N71" t="s">
-        <v>69</v>
-      </c>
-      <c r="O71">
+      <c r="X71" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y71">
         <v>0.5</v>
       </c>
-      <c r="P71">
+      <c r="Z71">
         <v>1</v>
       </c>
-      <c r="Q71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="AA71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4546,41 +6766,71 @@
       <c r="F72">
         <v>70</v>
       </c>
-      <c r="G72" t="s">
-        <v>23</v>
+      <c r="G72">
+        <v>70</v>
       </c>
       <c r="H72">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>70</v>
+      </c>
+      <c r="J72">
+        <v>70</v>
+      </c>
+      <c r="K72">
+        <v>70</v>
+      </c>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>70</v>
+      </c>
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>70</v>
+      </c>
+      <c r="P72">
+        <v>70</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72">
         <v>4</v>
       </c>
-      <c r="I72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72">
+      <c r="S72" t="s">
+        <v>38</v>
+      </c>
+      <c r="T72">
         <v>1.155909776687622</v>
       </c>
-      <c r="K72">
+      <c r="U72">
         <v>1</v>
       </c>
-      <c r="L72">
+      <c r="V72">
         <v>1</v>
       </c>
-      <c r="M72">
+      <c r="W72">
         <v>3500</v>
       </c>
-      <c r="N72" t="s">
-        <v>69</v>
-      </c>
-      <c r="O72">
+      <c r="X72" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y72">
         <v>0.5</v>
       </c>
-      <c r="P72">
+      <c r="Z72">
         <v>1</v>
       </c>
-      <c r="Q72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="AA72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4599,41 +6849,71 @@
       <c r="F73">
         <v>71</v>
       </c>
-      <c r="G73" t="s">
-        <v>23</v>
+      <c r="G73">
+        <v>71</v>
       </c>
       <c r="H73">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>71</v>
+      </c>
+      <c r="J73">
+        <v>71</v>
+      </c>
+      <c r="K73">
+        <v>71</v>
+      </c>
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73">
+        <v>71</v>
+      </c>
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>71</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73">
         <v>4</v>
       </c>
-      <c r="I73" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73">
+      <c r="S73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T73">
         <v>0.1637470722198486</v>
       </c>
-      <c r="K73">
+      <c r="U73">
         <v>1</v>
       </c>
-      <c r="L73">
+      <c r="V73">
         <v>1</v>
       </c>
-      <c r="M73">
+      <c r="W73">
         <v>800</v>
       </c>
-      <c r="N73" t="s">
-        <v>69</v>
-      </c>
-      <c r="O73">
+      <c r="X73" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y73">
         <v>0.5</v>
       </c>
-      <c r="P73">
+      <c r="Z73">
         <v>1</v>
       </c>
-      <c r="Q73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="AA73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4652,41 +6932,71 @@
       <c r="F74">
         <v>72</v>
       </c>
-      <c r="G74" t="s">
-        <v>23</v>
+      <c r="G74">
+        <v>72</v>
       </c>
       <c r="H74">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>72</v>
+      </c>
+      <c r="J74">
+        <v>72</v>
+      </c>
+      <c r="K74">
+        <v>72</v>
+      </c>
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74">
+        <v>72</v>
+      </c>
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>72</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74">
+      <c r="S74" t="s">
+        <v>39</v>
+      </c>
+      <c r="T74">
         <v>0.0637519359588623</v>
       </c>
-      <c r="K74">
+      <c r="U74">
         <v>1</v>
       </c>
-      <c r="L74">
+      <c r="V74">
         <v>1</v>
       </c>
-      <c r="M74">
+      <c r="W74">
         <v>2</v>
       </c>
-      <c r="N74" t="s">
-        <v>69</v>
-      </c>
-      <c r="O74">
+      <c r="X74" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y74">
         <v>0.5</v>
       </c>
-      <c r="P74">
+      <c r="Z74">
         <v>1</v>
       </c>
-      <c r="Q74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="AA74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4705,41 +7015,71 @@
       <c r="F75">
         <v>73</v>
       </c>
-      <c r="G75" t="s">
-        <v>23</v>
+      <c r="G75">
+        <v>73</v>
       </c>
       <c r="H75">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>73</v>
+      </c>
+      <c r="J75">
+        <v>73</v>
+      </c>
+      <c r="K75">
+        <v>73</v>
+      </c>
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75">
+        <v>73</v>
+      </c>
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>73</v>
+      </c>
+      <c r="P75">
+        <v>73</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75">
         <v>4</v>
       </c>
-      <c r="I75" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75">
+      <c r="S75" t="s">
+        <v>39</v>
+      </c>
+      <c r="T75">
         <v>0.06582140922546387</v>
       </c>
-      <c r="K75">
+      <c r="U75">
         <v>1</v>
       </c>
-      <c r="L75">
+      <c r="V75">
         <v>1</v>
       </c>
-      <c r="M75">
+      <c r="W75">
         <v>2</v>
       </c>
-      <c r="N75" t="s">
-        <v>69</v>
-      </c>
-      <c r="O75">
+      <c r="X75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y75">
         <v>0.5</v>
       </c>
-      <c r="P75">
+      <c r="Z75">
         <v>1</v>
       </c>
-      <c r="Q75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="AA75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4758,41 +7098,71 @@
       <c r="F76">
         <v>74</v>
       </c>
-      <c r="G76" t="s">
-        <v>23</v>
+      <c r="G76">
+        <v>74</v>
       </c>
       <c r="H76">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <v>74</v>
+      </c>
+      <c r="K76">
+        <v>74</v>
+      </c>
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76">
+        <v>74</v>
+      </c>
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>74</v>
+      </c>
+      <c r="P76">
+        <v>74</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76">
         <v>4</v>
       </c>
-      <c r="I76" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76">
+      <c r="S76" t="s">
+        <v>39</v>
+      </c>
+      <c r="T76">
         <v>0.07081031799316406</v>
       </c>
-      <c r="K76">
+      <c r="U76">
         <v>1</v>
       </c>
-      <c r="L76">
+      <c r="V76">
         <v>1</v>
       </c>
-      <c r="M76">
+      <c r="W76">
         <v>2</v>
       </c>
-      <c r="N76" t="s">
-        <v>69</v>
-      </c>
-      <c r="O76">
+      <c r="X76" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y76">
         <v>0.5</v>
       </c>
-      <c r="P76">
+      <c r="Z76">
         <v>1</v>
       </c>
-      <c r="Q76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="AA76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4811,41 +7181,71 @@
       <c r="F77">
         <v>75</v>
       </c>
-      <c r="G77" t="s">
-        <v>24</v>
+      <c r="G77">
+        <v>75</v>
       </c>
       <c r="H77">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <v>75</v>
+      </c>
+      <c r="K77">
+        <v>75</v>
+      </c>
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77">
+        <v>75</v>
+      </c>
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <v>75</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>34</v>
+      </c>
+      <c r="R77">
         <v>19</v>
       </c>
-      <c r="I77" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77">
+      <c r="S77" t="s">
+        <v>38</v>
+      </c>
+      <c r="T77">
         <v>341.0953028202057</v>
       </c>
-      <c r="K77">
+      <c r="U77">
         <v>1</v>
       </c>
-      <c r="L77">
+      <c r="V77">
         <v>4</v>
       </c>
-      <c r="M77">
+      <c r="W77">
         <v>3500</v>
       </c>
-      <c r="N77" t="s">
-        <v>70</v>
-      </c>
-      <c r="O77">
+      <c r="X77" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y77">
         <v>4.67637759551559</v>
       </c>
-      <c r="P77">
+      <c r="Z77">
         <v>14</v>
       </c>
-      <c r="Q77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="AA77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4864,41 +7264,71 @@
       <c r="F78">
         <v>76</v>
       </c>
-      <c r="G78" t="s">
-        <v>24</v>
+      <c r="G78">
+        <v>76</v>
       </c>
       <c r="H78">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>76</v>
+      </c>
+      <c r="J78">
+        <v>76</v>
+      </c>
+      <c r="K78">
+        <v>76</v>
+      </c>
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78">
+        <v>76</v>
+      </c>
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>76</v>
+      </c>
+      <c r="P78">
+        <v>76</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>34</v>
+      </c>
+      <c r="R78">
         <v>19</v>
       </c>
-      <c r="I78" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78">
+      <c r="S78" t="s">
+        <v>38</v>
+      </c>
+      <c r="T78">
         <v>315.520435333252</v>
       </c>
-      <c r="K78">
+      <c r="U78">
         <v>4</v>
       </c>
-      <c r="L78">
+      <c r="V78">
         <v>6</v>
       </c>
-      <c r="M78">
+      <c r="W78">
         <v>3500</v>
       </c>
-      <c r="N78" t="s">
-        <v>71</v>
-      </c>
-      <c r="O78">
+      <c r="X78" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y78">
         <v>6.0661752494678</v>
       </c>
-      <c r="P78">
+      <c r="Z78">
         <v>13</v>
       </c>
-      <c r="Q78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="AA78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4917,41 +7347,71 @@
       <c r="F79">
         <v>77</v>
       </c>
-      <c r="G79" t="s">
-        <v>24</v>
+      <c r="G79">
+        <v>77</v>
       </c>
       <c r="H79">
+        <v>77</v>
+      </c>
+      <c r="I79">
+        <v>77</v>
+      </c>
+      <c r="J79">
+        <v>77</v>
+      </c>
+      <c r="K79">
+        <v>77</v>
+      </c>
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79">
+        <v>77</v>
+      </c>
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>77</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>34</v>
+      </c>
+      <c r="R79">
         <v>19</v>
       </c>
-      <c r="I79" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79">
+      <c r="S79" t="s">
+        <v>38</v>
+      </c>
+      <c r="T79">
         <v>327.6018869876862</v>
       </c>
-      <c r="K79">
+      <c r="U79">
         <v>7</v>
       </c>
-      <c r="L79">
+      <c r="V79">
         <v>14</v>
       </c>
-      <c r="M79">
+      <c r="W79">
         <v>3500</v>
       </c>
-      <c r="N79" t="s">
-        <v>72</v>
-      </c>
-      <c r="O79">
+      <c r="X79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y79">
         <v>5.36329534093411</v>
       </c>
-      <c r="P79">
+      <c r="Z79">
         <v>12</v>
       </c>
-      <c r="Q79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="AA79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4970,41 +7430,71 @@
       <c r="F80">
         <v>78</v>
       </c>
-      <c r="G80" t="s">
-        <v>24</v>
+      <c r="G80">
+        <v>78</v>
       </c>
       <c r="H80">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>78</v>
+      </c>
+      <c r="J80">
+        <v>78</v>
+      </c>
+      <c r="K80">
+        <v>78</v>
+      </c>
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80">
+        <v>78</v>
+      </c>
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>78</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>34</v>
+      </c>
+      <c r="R80">
         <v>19</v>
       </c>
-      <c r="I80" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80">
+      <c r="S80" t="s">
+        <v>39</v>
+      </c>
+      <c r="T80">
         <v>143.203638792038</v>
       </c>
-      <c r="K80">
+      <c r="U80">
         <v>7</v>
       </c>
-      <c r="L80">
+      <c r="V80">
         <v>14</v>
       </c>
-      <c r="M80">
+      <c r="W80">
         <v>800</v>
       </c>
-      <c r="N80" t="s">
-        <v>73</v>
-      </c>
-      <c r="O80">
+      <c r="X80" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y80">
         <v>6.25394994975247</v>
       </c>
-      <c r="P80">
+      <c r="Z80">
         <v>15</v>
       </c>
-      <c r="Q80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="AA80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5023,41 +7513,71 @@
       <c r="F81">
         <v>79</v>
       </c>
-      <c r="G81" t="s">
-        <v>25</v>
+      <c r="G81">
+        <v>79</v>
       </c>
       <c r="H81">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>79</v>
+      </c>
+      <c r="J81">
+        <v>79</v>
+      </c>
+      <c r="K81">
+        <v>79</v>
+      </c>
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81">
+        <v>79</v>
+      </c>
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <v>79</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>35</v>
+      </c>
+      <c r="R81">
         <v>8</v>
       </c>
-      <c r="I81" t="s">
-        <v>28</v>
-      </c>
-      <c r="J81">
+      <c r="S81" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81">
         <v>1.653580188751221</v>
       </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
         <v>3500</v>
       </c>
-      <c r="N81" t="s">
-        <v>74</v>
-      </c>
-      <c r="O81">
+      <c r="X81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y81">
         <v>0.790569415042095</v>
       </c>
-      <c r="P81">
+      <c r="Z81">
         <v>1</v>
       </c>
-      <c r="Q81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="AA81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5076,41 +7596,71 @@
       <c r="F82">
         <v>80</v>
       </c>
-      <c r="G82" t="s">
-        <v>25</v>
+      <c r="G82">
+        <v>80</v>
       </c>
       <c r="H82">
+        <v>80</v>
+      </c>
+      <c r="I82">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <v>80</v>
+      </c>
+      <c r="K82">
+        <v>80</v>
+      </c>
+      <c r="L82">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>80</v>
+      </c>
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <v>80</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82">
         <v>8</v>
       </c>
-      <c r="I82" t="s">
-        <v>28</v>
-      </c>
-      <c r="J82">
+      <c r="S82" t="s">
+        <v>38</v>
+      </c>
+      <c r="T82">
         <v>0.4567773342132568</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
         <v>3500</v>
       </c>
-      <c r="N82" t="s">
-        <v>75</v>
-      </c>
-      <c r="O82">
+      <c r="X82" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y82">
         <v>0.790569415042095</v>
       </c>
-      <c r="P82">
+      <c r="Z82">
         <v>1</v>
       </c>
-      <c r="Q82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="AA82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5129,41 +7679,71 @@
       <c r="F83">
         <v>81</v>
       </c>
-      <c r="G83" t="s">
-        <v>25</v>
+      <c r="G83">
+        <v>81</v>
       </c>
       <c r="H83">
+        <v>81</v>
+      </c>
+      <c r="I83">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <v>81</v>
+      </c>
+      <c r="K83">
+        <v>81</v>
+      </c>
+      <c r="L83">
+        <v>81</v>
+      </c>
+      <c r="M83">
+        <v>81</v>
+      </c>
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>81</v>
+      </c>
+      <c r="P83">
+        <v>81</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>35</v>
+      </c>
+      <c r="R83">
         <v>8</v>
       </c>
-      <c r="I83" t="s">
-        <v>28</v>
-      </c>
-      <c r="J83">
+      <c r="S83" t="s">
+        <v>38</v>
+      </c>
+      <c r="T83">
         <v>1.086095333099365</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
         <v>3500</v>
       </c>
-      <c r="N83" t="s">
-        <v>76</v>
-      </c>
-      <c r="O83">
+      <c r="X83" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y83">
         <v>0.790569415042095</v>
       </c>
-      <c r="P83">
+      <c r="Z83">
         <v>1</v>
       </c>
-      <c r="Q83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="AA83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5182,41 +7762,71 @@
       <c r="F84">
         <v>82</v>
       </c>
-      <c r="G84" t="s">
-        <v>25</v>
+      <c r="G84">
+        <v>82</v>
       </c>
       <c r="H84">
+        <v>82</v>
+      </c>
+      <c r="I84">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>82</v>
+      </c>
+      <c r="K84">
+        <v>82</v>
+      </c>
+      <c r="L84">
+        <v>82</v>
+      </c>
+      <c r="M84">
+        <v>82</v>
+      </c>
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>82</v>
+      </c>
+      <c r="P84">
+        <v>82</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>35</v>
+      </c>
+      <c r="R84">
         <v>8</v>
       </c>
-      <c r="I84" t="s">
-        <v>29</v>
-      </c>
-      <c r="J84">
+      <c r="S84" t="s">
+        <v>39</v>
+      </c>
+      <c r="T84">
         <v>0.3516201972961426</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
         <v>800</v>
       </c>
-      <c r="N84" t="s">
-        <v>77</v>
-      </c>
-      <c r="O84">
+      <c r="X84" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y84">
         <v>0.790569415042095</v>
       </c>
-      <c r="P84">
+      <c r="Z84">
         <v>1</v>
       </c>
-      <c r="Q84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="AA84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5235,41 +7845,71 @@
       <c r="F85">
         <v>83</v>
       </c>
-      <c r="G85" t="s">
-        <v>25</v>
+      <c r="G85">
+        <v>83</v>
       </c>
       <c r="H85">
+        <v>83</v>
+      </c>
+      <c r="I85">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>83</v>
+      </c>
+      <c r="K85">
+        <v>83</v>
+      </c>
+      <c r="L85">
+        <v>83</v>
+      </c>
+      <c r="M85">
+        <v>83</v>
+      </c>
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>83</v>
+      </c>
+      <c r="P85">
+        <v>83</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>35</v>
+      </c>
+      <c r="R85">
         <v>8</v>
       </c>
-      <c r="I85" t="s">
-        <v>29</v>
-      </c>
-      <c r="J85">
+      <c r="S85" t="s">
+        <v>39</v>
+      </c>
+      <c r="T85">
         <v>0.1006648540496826</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
         <v>2</v>
       </c>
-      <c r="N85" t="s">
-        <v>78</v>
-      </c>
-      <c r="O85">
+      <c r="X85" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y85">
         <v>6.40724215105902</v>
       </c>
-      <c r="P85">
+      <c r="Z85">
         <v>2</v>
       </c>
-      <c r="Q85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="AA85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5288,41 +7928,71 @@
       <c r="F86">
         <v>84</v>
       </c>
-      <c r="G86" t="s">
-        <v>24</v>
+      <c r="G86">
+        <v>84</v>
       </c>
       <c r="H86">
+        <v>84</v>
+      </c>
+      <c r="I86">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>84</v>
+      </c>
+      <c r="K86">
+        <v>84</v>
+      </c>
+      <c r="L86">
+        <v>84</v>
+      </c>
+      <c r="M86">
+        <v>84</v>
+      </c>
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>84</v>
+      </c>
+      <c r="P86">
+        <v>84</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>34</v>
+      </c>
+      <c r="R86">
         <v>19</v>
       </c>
-      <c r="I86" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86">
+      <c r="S86" t="s">
+        <v>38</v>
+      </c>
+      <c r="T86">
         <v>4343.616775989532</v>
       </c>
-      <c r="K86">
+      <c r="U86">
         <v>1</v>
       </c>
-      <c r="L86">
+      <c r="V86">
         <v>4</v>
       </c>
-      <c r="M86">
+      <c r="W86">
         <v>60000</v>
       </c>
-      <c r="N86" t="s">
-        <v>79</v>
-      </c>
-      <c r="O86">
+      <c r="X86" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y86">
         <v>3.481085325213916</v>
       </c>
-      <c r="P86">
+      <c r="Z86">
         <v>14</v>
       </c>
-      <c r="Q86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="AA86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5339,43 +8009,73 @@
         <v>85</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
+        <v>85</v>
+      </c>
+      <c r="G87">
+        <v>85</v>
       </c>
       <c r="H87">
+        <v>85</v>
+      </c>
+      <c r="I87">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>85</v>
+      </c>
+      <c r="K87">
+        <v>85</v>
+      </c>
+      <c r="L87">
+        <v>85</v>
+      </c>
+      <c r="M87">
+        <v>85</v>
+      </c>
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>85</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>36</v>
+      </c>
+      <c r="R87">
         <v>65</v>
       </c>
-      <c r="I87" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87">
+      <c r="S87" t="s">
+        <v>38</v>
+      </c>
+      <c r="T87">
         <v>1501.000500202179</v>
       </c>
-      <c r="K87">
+      <c r="U87">
         <v>2</v>
       </c>
-      <c r="L87">
+      <c r="V87">
         <v>1</v>
       </c>
-      <c r="M87">
+      <c r="W87">
         <v>600</v>
       </c>
-      <c r="N87" t="s">
-        <v>80</v>
-      </c>
-      <c r="O87">
+      <c r="X87" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y87">
         <v>3.835615552708858</v>
       </c>
-      <c r="P87">
+      <c r="Z87">
         <v>21</v>
       </c>
-      <c r="Q87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="AA87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5389,43 +8089,73 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="F88">
+        <v>86</v>
+      </c>
+      <c r="G88">
+        <v>86</v>
       </c>
       <c r="H88">
+        <v>86</v>
+      </c>
+      <c r="I88">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>86</v>
+      </c>
+      <c r="K88">
+        <v>86</v>
+      </c>
+      <c r="L88">
+        <v>86</v>
+      </c>
+      <c r="M88">
+        <v>86</v>
+      </c>
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>37</v>
+      </c>
+      <c r="R88">
         <v>39</v>
       </c>
-      <c r="I88" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88">
+      <c r="S88" t="s">
+        <v>38</v>
+      </c>
+      <c r="T88">
         <v>615.6803371906281</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
         <v>1</v>
       </c>
-      <c r="M88">
+      <c r="W88">
         <v>600</v>
       </c>
-      <c r="N88" t="s">
-        <v>81</v>
-      </c>
-      <c r="O88">
+      <c r="X88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y88">
         <v>1.312509862368963</v>
       </c>
-      <c r="P88">
+      <c r="Z88">
         <v>14</v>
       </c>
-      <c r="Q88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="AA88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5436,43 +8166,73 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+      <c r="F89">
+        <v>87</v>
+      </c>
+      <c r="G89">
+        <v>87</v>
       </c>
       <c r="H89">
+        <v>87</v>
+      </c>
+      <c r="I89">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <v>87</v>
+      </c>
+      <c r="K89">
+        <v>87</v>
+      </c>
+      <c r="L89">
+        <v>87</v>
+      </c>
+      <c r="M89">
+        <v>87</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>28</v>
+      </c>
+      <c r="R89">
         <v>45</v>
       </c>
-      <c r="I89" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89">
+      <c r="S89" t="s">
+        <v>38</v>
+      </c>
+      <c r="T89">
         <v>818.8121011257172</v>
       </c>
-      <c r="K89">
+      <c r="U89">
         <v>4</v>
       </c>
-      <c r="L89">
+      <c r="V89">
         <v>6</v>
       </c>
-      <c r="M89">
+      <c r="W89">
         <v>600</v>
       </c>
-      <c r="N89" t="s">
-        <v>82</v>
-      </c>
-      <c r="O89">
+      <c r="X89" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y89">
         <v>25.36769705315834</v>
       </c>
-      <c r="P89">
+      <c r="Z89">
         <v>40</v>
       </c>
-      <c r="Q89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="AA89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5480,119 +8240,724 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+      <c r="F90">
+        <v>88</v>
+      </c>
+      <c r="G90">
+        <v>88</v>
       </c>
       <c r="H90">
+        <v>88</v>
+      </c>
+      <c r="I90">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <v>88</v>
+      </c>
+      <c r="K90">
+        <v>88</v>
+      </c>
+      <c r="L90">
+        <v>88</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>28</v>
+      </c>
+      <c r="R90">
         <v>45</v>
       </c>
-      <c r="I90" t="s">
-        <v>29</v>
-      </c>
-      <c r="J90">
+      <c r="S90" t="s">
+        <v>39</v>
+      </c>
+      <c r="T90">
         <v>0.8417873382568359</v>
       </c>
-      <c r="K90">
+      <c r="U90">
         <v>40</v>
       </c>
-      <c r="L90">
+      <c r="V90">
         <v>43</v>
       </c>
-      <c r="M90">
+      <c r="W90">
         <v>2</v>
       </c>
-      <c r="N90" t="s">
-        <v>51</v>
-      </c>
-      <c r="O90">
+      <c r="X90" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y90">
         <v>31.93684940223405</v>
       </c>
-      <c r="P90">
+      <c r="Z90">
         <v>42</v>
       </c>
-      <c r="Q90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="AA90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+      <c r="F91">
+        <v>89</v>
+      </c>
+      <c r="G91">
+        <v>89</v>
+      </c>
+      <c r="H91">
+        <v>89</v>
+      </c>
+      <c r="I91">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <v>89</v>
+      </c>
+      <c r="K91">
+        <v>89</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>35</v>
+      </c>
+      <c r="R91">
+        <v>8</v>
+      </c>
+      <c r="S91" t="s">
+        <v>39</v>
+      </c>
+      <c r="T91">
+        <v>0.0937502384185791</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>2</v>
+      </c>
+      <c r="X91" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y91">
+        <v>6.407242151059021</v>
+      </c>
+      <c r="Z91">
+        <v>2</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+      <c r="F92">
+        <v>90</v>
+      </c>
+      <c r="G92">
+        <v>90</v>
+      </c>
+      <c r="H92">
+        <v>90</v>
+      </c>
+      <c r="I92">
+        <v>90</v>
+      </c>
+      <c r="J92">
+        <v>90</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>35</v>
+      </c>
+      <c r="R92">
+        <v>8</v>
+      </c>
+      <c r="S92" t="s">
+        <v>39</v>
+      </c>
+      <c r="T92">
+        <v>0.09474682807922363</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>2</v>
+      </c>
+      <c r="X92" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y92">
+        <v>6.407242151059021</v>
+      </c>
+      <c r="Z92">
+        <v>2</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <v>91</v>
+      </c>
+      <c r="G93">
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>91</v>
+      </c>
+      <c r="I93">
+        <v>91</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>36</v>
+      </c>
+      <c r="R93">
+        <v>65</v>
+      </c>
+      <c r="S93" t="s">
+        <v>38</v>
+      </c>
+      <c r="T93">
+        <v>1.217744588851929</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y93">
+        <v>26.78556111997404</v>
+      </c>
+      <c r="Z93">
+        <v>41</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <v>92</v>
+      </c>
+      <c r="G94">
+        <v>92</v>
+      </c>
+      <c r="H94">
+        <v>92</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>37</v>
+      </c>
+      <c r="R94">
+        <v>39</v>
+      </c>
+      <c r="S94" t="s">
+        <v>38</v>
+      </c>
+      <c r="T94">
+        <v>0.4936800003051758</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y94">
+        <v>4.613932933687511</v>
+      </c>
+      <c r="Z94">
+        <v>19</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+      <c r="F95">
+        <v>93</v>
+      </c>
+      <c r="G95">
+        <v>93</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>28</v>
+      </c>
+      <c r="R95">
+        <v>45</v>
+      </c>
+      <c r="S95" t="s">
+        <v>38</v>
+      </c>
+      <c r="T95">
+        <v>0.643280029296875</v>
+      </c>
+      <c r="U95">
+        <v>14</v>
+      </c>
+      <c r="V95">
+        <v>15</v>
+      </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y95">
+        <v>35.49032380382296</v>
+      </c>
+      <c r="Z95">
+        <v>39</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>94</v>
+      </c>
+      <c r="F96">
+        <v>94</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>26</v>
+      </c>
+      <c r="R96">
         <v>25</v>
       </c>
-      <c r="H91">
+      <c r="S96" t="s">
+        <v>38</v>
+      </c>
+      <c r="T96">
+        <v>0.3819785118103027</v>
+      </c>
+      <c r="U96">
+        <v>13</v>
+      </c>
+      <c r="V96">
+        <v>17</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y96">
+        <v>8.222307494772176</v>
+      </c>
+      <c r="Z96">
+        <v>16</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>30</v>
+      </c>
+      <c r="R97">
+        <v>61</v>
+      </c>
+      <c r="S97" t="s">
+        <v>38</v>
+      </c>
+      <c r="T97">
+        <v>1.034233331680298</v>
+      </c>
+      <c r="U97">
+        <v>13</v>
+      </c>
+      <c r="V97">
         <v>8</v>
       </c>
-      <c r="I91" t="s">
-        <v>29</v>
-      </c>
-      <c r="J91">
-        <v>0.0937502384185791</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91" t="s">
-        <v>78</v>
-      </c>
-      <c r="O91">
-        <v>6.407242151059021</v>
-      </c>
-      <c r="P91">
-        <v>2</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y97">
+        <v>49.09582484512556</v>
+      </c>
+      <c r="Z97">
+        <v>38</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>27</v>
+      </c>
+      <c r="R98">
+        <v>21</v>
+      </c>
+      <c r="S98" t="s">
+        <v>38</v>
+      </c>
+      <c r="T98">
+        <v>0.2293872833251953</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y98">
+        <v>9.200903390242216</v>
+      </c>
+      <c r="Z98">
+        <v>10</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99">
+        <v>12</v>
+      </c>
+      <c r="S99" t="s">
+        <v>38</v>
+      </c>
+      <c r="T99">
+        <v>0.09474682807922363</v>
+      </c>
+      <c r="U99">
+        <v>6</v>
+      </c>
+      <c r="V99">
+        <v>20</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y99">
+        <v>3.421002205883148</v>
+      </c>
+      <c r="Z99">
+        <v>9</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>36</v>
+      </c>
+      <c r="R100">
+        <v>65</v>
+      </c>
+      <c r="S100" t="s">
+        <v>38</v>
+      </c>
+      <c r="T100">
+        <v>0.9684100151062012</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y100">
+        <v>86.23415552500627</v>
+      </c>
+      <c r="Z100">
         <v>25</v>
       </c>
-      <c r="H92">
-        <v>8</v>
-      </c>
-      <c r="I92" t="s">
-        <v>29</v>
-      </c>
-      <c r="J92">
-        <v>0.09474682807922363</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>2</v>
-      </c>
-      <c r="N92" t="s">
-        <v>78</v>
-      </c>
-      <c r="O92">
-        <v>6.407242151059021</v>
-      </c>
-      <c r="P92">
-        <v>2</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>125</v>
+      <c r="AA100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>37</v>
+      </c>
+      <c r="R101">
+        <v>39</v>
+      </c>
+      <c r="S101" t="s">
+        <v>38</v>
+      </c>
+      <c r="T101">
+        <v>0.450793981552124</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y101">
+        <v>3.379789092161146</v>
+      </c>
+      <c r="Z101">
+        <v>20</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>28</v>
+      </c>
+      <c r="R102">
+        <v>45</v>
+      </c>
+      <c r="S102" t="s">
+        <v>38</v>
+      </c>
+      <c r="T102">
+        <v>0.6512577533721924</v>
+      </c>
+      <c r="U102">
+        <v>12</v>
+      </c>
+      <c r="V102">
+        <v>16</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y102">
+        <v>27.84083615279835</v>
+      </c>
+      <c r="Z102">
+        <v>31</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
